--- a/medicine/Autisme/Jean-Philippe_Piat/Jean-Philippe_Piat.xlsx
+++ b/medicine/Autisme/Jean-Philippe_Piat/Jean-Philippe_Piat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Philippe Piat est un militant autiste, formateur dans le domaine de l'autisme et rédacteur du blog Aspi conseil[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Philippe Piat est un militant autiste, formateur dans le domaine de l'autisme et rédacteur du blog Aspi conseil
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Le militant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Créteil dans le Val-de-Marne en Île-de-France au sud-est de Paris diagnostiqué par le cra de Val-de-Marne en 2017, il se considère comme faisant le lien entre les neurotypiques (personnes avec un diagnostic TSA) et les personnes non-TSA. Il anime des formations de conseil, différant sujet la guidance parentale d'enfant et d'adulte avec diagnostic autiste et ou handicap cognitif. Membre du bureau d'une association de handicapés ayant trouble cognitif dit la TOUPI[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Créteil dans le Val-de-Marne en Île-de-France au sud-est de Paris diagnostiqué par le cra de Val-de-Marne en 2017, il se considère comme faisant le lien entre les neurotypiques (personnes avec un diagnostic TSA) et les personnes non-TSA. Il anime des formations de conseil, différant sujet la guidance parentale d'enfant et d'adulte avec diagnostic autiste et ou handicap cognitif. Membre du bureau d'une association de handicapés ayant trouble cognitif dit la TOUPI.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dans la mouvance associative de l'autisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est très influencé par l'association de parents créée en 1989 appelée Autisme France dirigée par Danièle Langloys, professeur de lettres classiques retraitée bien connue des médias et du milieu de l'autisme. Jean Philippe Piat a contribué à de nombreux protocoles de recherche et de vulgarisation auprès du grand publique sur la procédure d'annonce de diagnostic TSA[3] il a rédigé un guide sur l'autisme repris par Regina Naegeli[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très influencé par l'association de parents créée en 1989 appelée Autisme France dirigée par Danièle Langloys, professeur de lettres classiques retraitée bien connue des médias et du milieu de l'autisme. Jean Philippe Piat a contribué à de nombreux protocoles de recherche et de vulgarisation auprès du grand publique sur la procédure d'annonce de diagnostic TSA il a rédigé un guide sur l'autisme repris par Regina Naegeli.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Conseiller en autisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il conseille les autistes sur la manière de se comporter en société et à s'insérer dans la vie quotidienne via la publication de livres et d'ateliers d'habilité sociale[5],[6], dont un certain nombre de ses livres furent sélectionnés par le fonds de dotation handicap et société[7],[8]. Il rédige un article université sur le "genre et autisme" en 2021 pour la profession d'orthophoniste[9]. Par ailleurs, il est l'auteur d'une thèse de pharmacie sur Fabrication des minigranules à libération prolongée : essais en granulateur à rotor et en système Wurster avec félicitations du jury en 1992 sous la direction du professeur de pharmacie Denis Brossard[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il conseille les autistes sur la manière de se comporter en société et à s'insérer dans la vie quotidienne via la publication de livres et d'ateliers d'habilité sociale dont un certain nombre de ses livres furent sélectionnés par le fonds de dotation handicap et société,. Il rédige un article université sur le "genre et autisme" en 2021 pour la profession d'orthophoniste. Par ailleurs, il est l'auteur d'une thèse de pharmacie sur Fabrication des minigranules à libération prolongée : essais en granulateur à rotor et en système Wurster avec félicitations du jury en 1992 sous la direction du professeur de pharmacie Denis Brossard.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jean-Philippe Piat, Guide de survie de la personne autiste, éd. AFD, 2018  (ISBN 978-2-917150-50-4)
 Jean-Philippe Piat, Devenir détective de l'autisme, 2010 ; réédité en 2013 ( (ISBN 2958511804)) et ({{[ISBN|978-2958511807}})</t>
